--- a/Souq/src/price/Souq/excel_16_bolsas_e_necessaires.xlsx
+++ b/Souq/src/price/Souq/excel_16_bolsas_e_necessaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,228 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bolsas e Necessaires</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BOLSA AMOUR</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/bolsa-amour-02-08-04-022-005.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>39,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bolsas e Necessaires</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NECESSAIRE TERESA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/necessaire-teresa-02-14-01-236-054.html</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>159,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>79,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bolsas e Necessaires</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NECESSAIRE UBATUBA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/necessaire-ubatuba-02-14-01-234-001.html</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>79,00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>39,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bolsas e Necessaires</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NECESSAIRE TERESINHA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/necessaire-teresinha-02-14-01-237-054.html</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>129,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>59,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bolsas e Necessaires</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NECESSAIRE TERE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/necessaire-tere-02-14-01-238-054.html</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>99,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bolsas e Necessaires</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PORTA MOEDAS MAYA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/porta-moedas-maya-02-11-02-064-009.html</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>59,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>26,55</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
